--- a/xlsx/周礼_intext.xlsx
+++ b/xlsx/周礼_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="558">
   <si>
     <t>周礼</t>
   </si>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%8B_(%E4%B8%AD%E5%9C%8B)</t>
   </si>
   <si>
-    <t>戰國 (中國)</t>
+    <t>战国 (中国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%AD%E7%8E%84</t>
   </si>
   <si>
-    <t>鄭玄</t>
+    <t>郑玄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%AD%90%E6%98%A5</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E5%85%AC%E5%BD%A5</t>
   </si>
   <si>
-    <t>賈公彥</t>
+    <t>贾公彦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%99%E8%AF%92%E8%AE%A9</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E5%AD%B8</t>
   </si>
   <si>
-    <t>經學</t>
+    <t>经学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AE%B6</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9</t>
   </si>
   <si>
-    <t>義</t>
+    <t>义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BC%E4%B9%90%E5%88%B6%E5%BA%A6</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%A0%E4%BF%A1</t>
   </si>
   <si>
-    <t>誠信</t>
+    <t>诚信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%91%BD</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%B6%B1%E4%BA%94%E5%B8%B8</t>
   </si>
   <si>
-    <t>三綱五常</t>
+    <t>三纲五常</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E7%AB%AF</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%80%AB</t>
   </si>
   <si>
-    <t>五倫</t>
+    <t>五伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E7%B6%AD%E5%85%AB%E5%BE%B7</t>
   </si>
   <si>
-    <t>四維八德</t>
+    <t>四维八德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E6%94%BF</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E7%B5%B1</t>
   </si>
   <si>
-    <t>道統</t>
+    <t>道统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B3%A2</t>
   </si>
   <si>
-    <t>聖賢</t>
+    <t>圣贤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%AD%90</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AF</t>
   </si>
   <si>
-    <t>堯</t>
+    <t>尧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%9C</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%B9%AF</t>
   </si>
   <si>
-    <t>商湯</t>
+    <t>商汤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E6%96%87%E7%8E%8B</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8F%E5%9B%9E</t>
   </si>
   <si>
-    <t>顏回</t>
+    <t>颜回</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BE%E5%8F%82</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E8%82%85</t>
   </si>
   <si>
-    <t>王肅</t>
+    <t>王肃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E9%80%9A_(%E9%9A%8B%E6%9C%9D)</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%84%88</t>
   </si>
   <si>
-    <t>韓愈</t>
+    <t>韩愈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E9%A2%A2</t>
@@ -419,31 +419,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E6%95%A6%E9%A0%A4</t>
   </si>
   <si>
-    <t>周敦頤</t>
+    <t>周敦颐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E8%BC%89_(%E5%8C%97%E5%AE%8B)</t>
   </si>
   <si>
-    <t>張載 (北宋)</t>
+    <t>张载 (北宋)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E4%B9%9D%E6%B7%B5</t>
   </si>
   <si>
-    <t>陸九淵</t>
+    <t>陆九渊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E6%BE%84</t>
   </si>
   <si>
-    <t>吳澄</t>
+    <t>吴澄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E7%8D%BB%E7%AB%A0</t>
   </si>
   <si>
-    <t>陳獻章</t>
+    <t>陈献章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%AE%88%E4%BB%81</t>
@@ -503,19 +503,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%A4%E5%8E%9F%E6%83%BA%E7%AA%A9</t>
   </si>
   <si>
-    <t>藤原惺窩</t>
+    <t>藤原惺窝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%BE%85%E5%B1%B1</t>
   </si>
   <si>
-    <t>林羅山</t>
+    <t>林罗山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A4%E9%B3%A9%E5%B7%A2</t>
   </si>
   <si>
-    <t>室鳩巢</t>
+    <t>室鸠巢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BA%95%E7%99%BD%E7%9F%B3</t>
@@ -533,13 +533,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%9B%E8%81%B0_(%E6%96%B0%E7%BE%85)</t>
   </si>
   <si>
-    <t>薛聰 (新羅)</t>
+    <t>薛聪 (新罗)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E8%BF%91</t>
   </si>
   <si>
-    <t>權近</t>
+    <t>权近</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%86%8D</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%A9%A1</t>
   </si>
   <si>
-    <t>李穡</t>
+    <t>李穑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%BB%89</t>
@@ -575,19 +575,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E9%BD%8A%E8%B3%A2</t>
   </si>
   <si>
-    <t>李齊賢</t>
+    <t>李齐贤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%AD%E5%A4%A2%E5%91%A8</t>
   </si>
   <si>
-    <t>鄭夢周</t>
+    <t>郑梦周</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%AD%E9%81%93%E5%82%B3</t>
   </si>
   <si>
-    <t>鄭道傳</t>
+    <t>郑道传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B4%94%E8%87%B4%E8%BF%9C</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%99%E5%85%89%E7%A5%96</t>
   </si>
   <si>
-    <t>趙光祖</t>
+    <t>赵光祖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%BD%A6%E8%BF%AA</t>
@@ -659,25 +659,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E6%99%82%E4%BB%BB</t>
   </si>
   <si>
-    <t>吳時任</t>
+    <t>吴时任</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E9%A0%86%E5%89%87</t>
   </si>
   <si>
-    <t>程順則</t>
+    <t>程顺则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%91%E8%B1%A1%E8%B3%A2</t>
   </si>
   <si>
-    <t>向象賢</t>
+    <t>向象贤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A1%E6%BA%AB</t>
   </si>
   <si>
-    <t>蔡溫</t>
+    <t>蔡温</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E7%BB%8F</t>
@@ -725,31 +725,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A9%E7%B6%93</t>
   </si>
   <si>
-    <t>詩經</t>
+    <t>诗经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%80%E7%A6%AE</t>
   </si>
   <si>
-    <t>儀禮</t>
+    <t>仪礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E8%A8%98</t>
   </si>
   <si>
-    <t>禮記</t>
+    <t>礼记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%A7%8B_(%E5%8F%B2%E6%9B%B8)</t>
   </si>
   <si>
-    <t>春秋 (史書)</t>
+    <t>春秋 (史书)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E5%82%B3</t>
   </si>
   <si>
-    <t>左傳</t>
+    <t>左传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%BE%8A%E4%BC%A0</t>
@@ -761,37 +761,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%80%E6%A2%81%E5%82%B3</t>
   </si>
   <si>
-    <t>穀梁傳</t>
+    <t>谷梁传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9D%E7%B6%93</t>
   </si>
   <si>
-    <t>孝經</t>
+    <t>孝经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E8%AA%9E</t>
   </si>
   <si>
-    <t>論語</t>
+    <t>论语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%BE%E9%9B%85</t>
   </si>
   <si>
-    <t>爾雅</t>
+    <t>尔雅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8_(%E7%B6%93%E5%82%B3)</t>
   </si>
   <si>
-    <t>大學 (經傳)</t>
+    <t>大学 (经传)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E7%B6%93%E6%B3%A8%E7%96%8F</t>
   </si>
   <si>
-    <t>十三經注疏</t>
+    <t>十三经注疏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B9%A6%E7%AB%A0%E5%8F%A5%E9%9B%86%E6%B3%A8</t>
@@ -803,9 +803,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E5%AD%A6</t>
   </si>
   <si>
-    <t>经学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%96%87%E7%BB%8F%E5%AD%A6</t>
   </si>
   <si>
@@ -815,13 +812,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%96%87%E7%B6%93%E5%AD%B8</t>
   </si>
   <si>
-    <t>古文經學</t>
+    <t>古文经学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%98%8E%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宋明理學</t>
+    <t>宋明理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E6%9C%B1%E7%90%86%E5%AD%A6</t>
@@ -839,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%BD%E6%98%8E%E5%AD%B8</t>
   </si>
   <si>
-    <t>陽明學</t>
+    <t>阳明学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B4%E5%AD%A6</t>
@@ -851,25 +848,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E4%B8%96%E4%B9%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>經世之學</t>
+    <t>经世之学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E5%AD%B8</t>
   </si>
   <si>
-    <t>實學</t>
+    <t>实学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%88%B6%E5%AD%B8</t>
   </si>
   <si>
-    <t>水戶學</t>
+    <t>水户学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E9%96%80%E5%BF%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>石門心學</t>
+    <t>石门心学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%8A%E5%8D%81%E5%8A%9B</t>
@@ -905,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%9D%B1%E7%BE%8E</t>
   </si>
   <si>
-    <t>方東美</t>
+    <t>方东美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%90%E5%A4%8D%E8%A7%82</t>
@@ -923,13 +920,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E6%85%B6</t>
   </si>
   <si>
-    <t>蔣慶</t>
+    <t>蒋庆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E7%B6%AD%E6%98%8E</t>
   </si>
   <si>
-    <t>杜維明</t>
+    <t>杜维明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%B8%AD%E8%8B%B1</t>
@@ -941,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E8%BF%B0%E5%85%88</t>
   </si>
   <si>
-    <t>劉述先</t>
+    <t>刘述先</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%84%92%E5%AE%B6</t>
@@ -959,13 +956,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E8%A1%A1%E6%B4%BE</t>
   </si>
   <si>
-    <t>學衡派</t>
+    <t>学衡派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%84%92%E5%AE%B6</t>
   </si>
   <si>
-    <t>波士頓儒家</t>
+    <t>波士顿儒家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E8%89%BA</t>
@@ -983,9 +980,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%BA%B2%E4%BA%94%E5%B8%B8</t>
   </si>
   <si>
-    <t>三纲五常</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E7%BB%8F%E5%8D%9A%E5%A3%AB</t>
   </si>
   <si>
@@ -1007,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8D%E8%81%96%E5%85%AC</t>
   </si>
   <si>
-    <t>衍聖公</t>
+    <t>衍圣公</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E4%B8%BE</t>
@@ -1061,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E6%AD%86</t>
   </si>
   <si>
-    <t>劉歆</t>
+    <t>刘歆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E8%8E%BD</t>
@@ -1085,15 +1079,9 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%91%E7%8E%84</t>
   </si>
   <si>
-    <t>郑玄</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E7%B6%93%E8%A8%BB%E7%96%8F</t>
   </si>
   <si>
-    <t>十三經註疏</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%96%87</t>
   </si>
   <si>
@@ -1121,13 +1109,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E5%88%B6</t>
   </si>
   <si>
-    <t>禮制</t>
+    <t>礼制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%9C%9D</t>
   </si>
   <si>
-    <t>漢朝</t>
+    <t>汉朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E6%9C%9D</t>
@@ -1151,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%B7%A5%E8%A8%98</t>
   </si>
   <si>
-    <t>考工記</t>
+    <t>考工记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -1175,13 +1163,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E5%85%B8</t>
   </si>
   <si>
-    <t>經典</t>
+    <t>经典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%A6%AE</t>
   </si>
   <si>
-    <t>三禮</t>
+    <t>三礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E4%BB%A3</t>
@@ -1193,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%A0%E5%AD%B8%E8%AA%A0</t>
   </si>
   <si>
-    <t>章學誠</t>
+    <t>章学诚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E5%B9%B3%E5%AD%90</t>
@@ -1211,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%A4%B7%E4%B9%8B%E8%BE%A8</t>
   </si>
   <si>
-    <t>華夷之辨</t>
+    <t>华夷之辨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E6%AD%A6%E5%B8%9D</t>
@@ -1223,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%AD%A1</t>
   </si>
   <si>
-    <t>高歡</t>
+    <t>高欢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E6%96%87%E6%B3%B0</t>
@@ -1241,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%B6%BD</t>
   </si>
   <si>
-    <t>蘇綽</t>
+    <t>苏绰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%A2%E5%AE%B0</t>
@@ -1295,13 +1283,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B6%E9%83%A8</t>
   </si>
   <si>
-    <t>戶部</t>
+    <t>户部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B6%E7%B1%8D</t>
   </si>
   <si>
-    <t>戶籍</t>
+    <t>户籍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%81%E7%A8%8E</t>
@@ -1325,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E9%83%A8</t>
   </si>
   <si>
-    <t>禮部</t>
+    <t>礼部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -1343,9 +1331,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B5%E9%83%A8</t>
   </si>
   <si>
@@ -1415,61 +1400,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9C%E4%B8%98%E5%A3%87</t>
   </si>
   <si>
-    <t>圜丘壇</t>
+    <t>圜丘坛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%A3%87</t>
   </si>
   <si>
-    <t>日壇</t>
+    <t>日坛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E5%A3%87</t>
   </si>
   <si>
-    <t>月壇</t>
+    <t>月坛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%BC%A2%E6%9B%B8</t>
   </si>
   <si>
-    <t>後漢書</t>
+    <t>后汉书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%89%E6%9B%B8</t>
   </si>
   <si>
-    <t>晉書</t>
+    <t>晋书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%9B%B8</t>
   </si>
   <si>
-    <t>宋書</t>
+    <t>宋书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%BD%8A%E6%9B%B8</t>
   </si>
   <si>
-    <t>南齊書</t>
+    <t>南齐书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8B%E6%9B%B8</t>
   </si>
   <si>
-    <t>隋書</t>
+    <t>隋书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E5%94%90%E6%9B%B8</t>
   </si>
   <si>
-    <t>舊唐書</t>
+    <t>旧唐书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%94%90%E6%9B%B8</t>
   </si>
   <si>
-    <t>新唐書</t>
+    <t>新唐书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E5%8F%B2</t>
@@ -1487,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%9C%8D</t>
   </si>
   <si>
-    <t>漢服</t>
+    <t>汉服</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%AD%90</t>
@@ -1559,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%AE%89%E7%9F%B3%E8%AE%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>王安石變法</t>
+    <t>王安石变法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%AE%89%E7%9F%B3</t>
@@ -1571,7 +1556,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%BD%8D</t>
   </si>
   <si>
-    <t>蘇轍</t>
+    <t>苏辙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E9%98%B3%E4%BF%AE</t>
@@ -1583,13 +1568,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E6%96%AF%E5%90%8C</t>
   </si>
   <si>
-    <t>萬斯同</t>
+    <t>万斯同</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%9A%E9%9A%9B%E6%81%86</t>
   </si>
   <si>
-    <t>姚際恆</t>
+    <t>姚际恒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%88%E5%BD%A4_(%E6%B8%85%E6%9C%9D)</t>
@@ -1607,7 +1592,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%9C%89%E7%82%BA</t>
   </si>
   <si>
-    <t>康有為</t>
+    <t>康有为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%AD%A6%E4%BC%AA%E7%BB%8F%E8%80%83</t>
@@ -1619,19 +1604,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B3%E7%BF%BC%E8%AC%80</t>
   </si>
   <si>
-    <t>柳翼謀</t>
+    <t>柳翼谋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%96%87%E5%8C%96%E5%8F%B2_(%E6%9F%B3%E8%A9%92%E5%BE%B5)</t>
   </si>
   <si>
-    <t>中國文化史 (柳詒徵)</t>
+    <t>中国文化史 (柳诒征)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%BC%A2</t>
   </si>
   <si>
-    <t>東漢</t>
+    <t>东汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90</t>
@@ -1655,9 +1640,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E8%A9%92%E8%AE%93</t>
   </si>
   <si>
-    <t>孫詒讓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%8B%9E</t>
   </si>
   <si>
@@ -1685,7 +1667,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8C%97%E5%B8%82</t>
@@ -5847,7 +5829,7 @@
         <v>261</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5873,10 +5855,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5902,10 +5884,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -5931,10 +5913,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5960,10 +5942,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5989,10 +5971,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6018,10 +6000,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6047,10 +6029,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6076,10 +6058,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6105,10 +6087,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6134,10 +6116,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6163,10 +6145,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6192,10 +6174,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6221,10 +6203,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6250,10 +6232,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6279,10 +6261,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6308,10 +6290,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6337,10 +6319,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6366,10 +6348,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6395,10 +6377,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6424,10 +6406,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
         <v>301</v>
-      </c>
-      <c r="F151" t="s">
-        <v>302</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6453,10 +6435,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" t="s">
         <v>303</v>
-      </c>
-      <c r="F152" t="s">
-        <v>304</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6482,10 +6464,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" t="s">
         <v>305</v>
-      </c>
-      <c r="F153" t="s">
-        <v>306</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6511,10 +6493,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>306</v>
+      </c>
+      <c r="F154" t="s">
         <v>307</v>
-      </c>
-      <c r="F154" t="s">
-        <v>308</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6540,10 +6522,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>308</v>
+      </c>
+      <c r="F155" t="s">
         <v>309</v>
-      </c>
-      <c r="F155" t="s">
-        <v>310</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6569,10 +6551,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" t="s">
         <v>311</v>
-      </c>
-      <c r="F156" t="s">
-        <v>312</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6598,10 +6580,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
         <v>313</v>
-      </c>
-      <c r="F157" t="s">
-        <v>314</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6627,10 +6609,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="s">
         <v>315</v>
-      </c>
-      <c r="F158" t="s">
-        <v>316</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6656,10 +6638,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>316</v>
+      </c>
+      <c r="F159" t="s">
         <v>317</v>
-      </c>
-      <c r="F159" t="s">
-        <v>318</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6685,10 +6667,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>318</v>
+      </c>
+      <c r="F160" t="s">
         <v>319</v>
-      </c>
-      <c r="F160" t="s">
-        <v>320</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6714,10 +6696,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F161" t="s">
-        <v>322</v>
+        <v>40</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6743,10 +6725,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F162" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6772,10 +6754,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6801,10 +6783,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F164" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6830,10 +6812,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6859,10 +6841,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F166" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6888,10 +6870,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F167" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6917,10 +6899,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F168" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6946,10 +6928,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F169" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>5</v>
@@ -7004,10 +6986,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -7033,10 +7015,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>10</v>
@@ -7062,10 +7044,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7091,10 +7073,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7120,10 +7102,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G175" t="n">
         <v>4</v>
@@ -7149,10 +7131,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7178,10 +7160,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7207,10 +7189,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7236,10 +7218,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>8</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7265,10 +7247,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7294,10 +7276,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -7323,10 +7305,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>5</v>
@@ -7352,10 +7334,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7381,10 +7363,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7410,10 +7392,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -7439,10 +7421,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7468,10 +7450,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7497,10 +7479,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7526,10 +7508,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7555,10 +7537,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7584,10 +7566,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G191" t="n">
         <v>5</v>
@@ -7613,10 +7595,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7642,10 +7624,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7671,10 +7653,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7700,10 +7682,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7729,10 +7711,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -7758,10 +7740,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7787,10 +7769,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7816,10 +7798,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7845,10 +7827,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7874,10 +7856,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7903,10 +7885,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7932,10 +7914,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7961,10 +7943,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7990,10 +7972,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8019,10 +8001,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F206" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8048,10 +8030,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F207" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -8077,10 +8059,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G208" t="n">
         <v>7</v>
@@ -8106,10 +8088,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8135,10 +8117,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F210" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8164,10 +8146,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8193,10 +8175,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F212" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8222,10 +8204,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F213" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8251,10 +8233,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F214" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8280,10 +8262,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F215" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8309,10 +8291,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F216" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8338,10 +8320,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F217" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -8367,10 +8349,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F218" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G218" t="n">
         <v>4</v>
@@ -8396,10 +8378,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F219" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8425,10 +8407,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F220" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8454,10 +8436,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F221" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8483,10 +8465,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F222" t="s">
-        <v>442</v>
+        <v>378</v>
       </c>
       <c r="G222" t="n">
         <v>3</v>
@@ -8512,10 +8494,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F223" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -8541,10 +8523,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F224" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8570,10 +8552,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F225" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8599,10 +8581,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F226" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8628,10 +8610,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F227" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8657,10 +8639,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F228" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8686,10 +8668,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F229" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -8715,10 +8697,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F230" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8744,10 +8726,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F231" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -8773,10 +8755,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F232" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8802,10 +8784,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F233" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8831,10 +8813,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F234" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8860,10 +8842,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F235" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8889,10 +8871,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F236" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8918,10 +8900,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F237" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8947,10 +8929,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F238" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8976,10 +8958,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F239" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9005,10 +8987,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F240" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9034,10 +9016,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F241" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9063,10 +9045,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F242" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9092,10 +9074,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F243" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9121,10 +9103,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F244" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9150,10 +9132,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F245" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9179,10 +9161,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F246" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9208,10 +9190,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F247" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9237,10 +9219,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F248" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -9266,10 +9248,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F249" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9295,10 +9277,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F250" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9324,10 +9306,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F251" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9353,10 +9335,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F252" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9382,10 +9364,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F253" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9411,10 +9393,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F254" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9440,10 +9422,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F255" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9469,10 +9451,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F256" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9498,10 +9480,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F257" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -9527,10 +9509,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F258" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9556,10 +9538,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F259" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G259" t="n">
         <v>4</v>
@@ -9585,10 +9567,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F260" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9614,10 +9596,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F261" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -9643,10 +9625,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F262" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9672,10 +9654,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F263" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9701,10 +9683,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F264" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9730,10 +9712,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F265" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9759,10 +9741,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F266" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9788,10 +9770,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F267" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9817,10 +9799,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F268" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9846,10 +9828,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F269" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9875,10 +9857,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F270" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9904,10 +9886,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F271" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G271" t="n">
         <v>14</v>
@@ -9933,10 +9915,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F272" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G272" t="n">
         <v>8</v>
@@ -9962,10 +9944,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F273" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9991,10 +9973,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F274" t="s">
-        <v>546</v>
+        <v>16</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10020,10 +10002,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F275" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10049,10 +10031,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F276" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10078,10 +10060,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F277" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10107,10 +10089,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F278" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -10136,10 +10118,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F279" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G279" t="n">
         <v>3</v>
@@ -10165,10 +10147,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F280" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10194,10 +10176,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F281" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G281" t="n">
         <v>12</v>
@@ -10223,10 +10205,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F282" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10252,10 +10234,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F283" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
